--- a/SUMIF-SUMIFS-VLOOKUP.xlsx
+++ b/SUMIF-SUMIFS-VLOOKUP.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6201C4A-AA50-47FD-8495-ED7B5E32ED12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DD8E96-AD9D-4C70-9F9A-2C7E19A50EE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17985" yWindow="285" windowWidth="19230" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11550" yWindow="465" windowWidth="19230" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMIFS-VLOOKUP" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,9 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
   <si>
-    <t>Worksheet Skills demonstrated:</t>
-  </si>
-  <si>
     <t>* A VLOOKUP function is nested inside a SUMIF function</t>
   </si>
   <si>
@@ -106,25 +100,28 @@
     <t>Received</t>
   </si>
   <si>
-    <t>TMMG</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>Greatland</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>Kaiser</t>
-  </si>
-  <si>
     <t>Today's Date</t>
   </si>
   <si>
     <t>&gt;30 days old</t>
+  </si>
+  <si>
+    <t>Excel Skills demonstrated:</t>
+  </si>
+  <si>
+    <t>Client A</t>
+  </si>
+  <si>
+    <t>Client B</t>
+  </si>
+  <si>
+    <t>Client C</t>
+  </si>
+  <si>
+    <t>Client D</t>
+  </si>
+  <si>
+    <t>Client E</t>
   </si>
 </sst>
 </file>
@@ -1589,123 +1586,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Revenue"/>
-      <sheetName val="Revv2"/>
-      <sheetName val="Expenses"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>Invoiced</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>Paid</v>
-          </cell>
-          <cell r="D9" t="str">
-            <v>Receivables</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Receivables &gt;30 days</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>1-001</v>
-          </cell>
-          <cell r="B10">
-            <v>18800</v>
-          </cell>
-          <cell r="C10">
-            <v>14800</v>
-          </cell>
-          <cell r="D10">
-            <v>4000</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>1-002</v>
-          </cell>
-          <cell r="B11">
-            <v>700</v>
-          </cell>
-          <cell r="C11">
-            <v>700</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>1-003</v>
-          </cell>
-          <cell r="B12">
-            <v>1910</v>
-          </cell>
-          <cell r="C12">
-            <v>450</v>
-          </cell>
-          <cell r="D12">
-            <v>1460</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>1-004</v>
-          </cell>
-          <cell r="B13">
-            <v>0</v>
-          </cell>
-          <cell r="C13">
-            <v>0</v>
-          </cell>
-          <cell r="D13">
-            <v>0</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>1-005</v>
-          </cell>
-          <cell r="B14">
-            <v>0</v>
-          </cell>
-          <cell r="C14">
-            <v>0</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1972,7 +1852,7 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,59 +1870,59 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="6">
         <f>SUMIF($B$21:$B$506,VLOOKUP($A10,$F$21:$G$25,2),$C$21:$C$506)</f>
@@ -2064,7 +1944,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="6">
         <f t="shared" ref="B11:B14" si="0">SUMIF($B$21:$B$506,VLOOKUP($A11,$F$21:$G$25,2),$C$21:$C$506)</f>
@@ -2085,7 +1965,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
@@ -2106,7 +1986,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -2127,7 +2007,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
@@ -2148,7 +2028,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="10">
         <f>SUM(B10:B14)</f>
@@ -2182,29 +2062,29 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="D20" s="5"/>
       <c r="F20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="I20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2212,23 +2092,23 @@
         <v>44208</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <v>7200</v>
       </c>
       <c r="D21" s="7"/>
       <c r="F21" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I21" s="5">
         <v>44208</v>
       </c>
       <c r="J21" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K21" s="7">
         <v>7200</v>
@@ -2239,23 +2119,23 @@
         <v>44216</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>700</v>
       </c>
       <c r="D22" s="7"/>
       <c r="F22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I22" s="5">
         <v>44216</v>
       </c>
       <c r="J22" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22" s="7">
         <v>700</v>
@@ -2266,23 +2146,23 @@
         <v>44218</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="7">
         <v>450</v>
       </c>
       <c r="D23" s="7"/>
       <c r="F23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I23" s="5">
         <v>44218</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K23" s="7">
         <v>450</v>
@@ -2293,23 +2173,23 @@
         <v>44220</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="7">
         <v>3600</v>
       </c>
       <c r="D24" s="7"/>
       <c r="F24" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I24" s="5">
         <v>44220</v>
       </c>
       <c r="J24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K24" s="7">
         <v>3600</v>
@@ -2320,23 +2200,23 @@
         <v>44237</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7">
         <v>750</v>
       </c>
       <c r="D25" s="7"/>
       <c r="F25" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I25" s="5">
         <v>44237</v>
       </c>
       <c r="J25" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K25" s="7">
         <v>750</v>
@@ -2347,7 +2227,7 @@
         <v>44247</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C26" s="7">
         <v>1460</v>
@@ -2357,7 +2237,7 @@
         <v>44247</v>
       </c>
       <c r="J26" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K26" s="7">
         <v>0</v>
@@ -2368,14 +2248,14 @@
         <v>44248</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" s="7">
         <v>1500</v>
       </c>
       <c r="D27" s="7"/>
       <c r="F27" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G27" s="1">
         <v>44287</v>
@@ -2384,7 +2264,7 @@
         <v>44248</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K27" s="7">
         <v>1500</v>
@@ -2395,14 +2275,14 @@
         <v>44253</v>
       </c>
       <c r="B28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C28" s="7">
         <v>4000</v>
       </c>
       <c r="D28" s="7"/>
       <c r="F28" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G28" s="1">
         <f>G27-30</f>
@@ -2412,7 +2292,7 @@
         <v>44253</v>
       </c>
       <c r="J28" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7">
         <v>4000</v>
@@ -2422,8 +2302,8 @@
       <c r="A29" s="5">
         <v>44259</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>25</v>
+      <c r="B29" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="7">
         <v>1500</v>
@@ -2433,7 +2313,7 @@
         <v>44259</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K29" s="7">
         <v>0</v>
@@ -2444,7 +2324,7 @@
         <v>44270</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>4000</v>
@@ -2454,7 +2334,7 @@
         <v>44270</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="7">
         <v>0</v>
